--- a/upcoming-conference/ICRAT_2022_Schedule.xlsx
+++ b/upcoming-conference/ICRAT_2022_Schedule.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovell\Documents\Work\Conferences\ICRAT\2022 Tampa\Program Committee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Conferences\ICRAT\2022 Tampa\Program Committee\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088811D9-5D53-41FE-89EC-F7D75A481EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conference schedule" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Conference schedule'!$A$1:$J$94</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -109,9 +110,6 @@
     <t>Paper sessions 1:30 - 3:30 pm</t>
   </si>
   <si>
-    <t>Doctoral paper sessions 4:00 - 5:20 pm</t>
-  </si>
-  <si>
     <t>Track title</t>
   </si>
   <si>
@@ -511,9 +509,6 @@
     <t>Doctoral paper sessions 11:00 - 1:00 pm</t>
   </si>
   <si>
-    <t>Gala Dinner - Tampa Club (101 E Kennedy Blvd #4200, Tampa, FL 33602) - shuttles will be available from the conference hotels, departing at 6:00 PM</t>
-  </si>
-  <si>
     <t>Li</t>
   </si>
   <si>
@@ -673,9 +668,6 @@
     <t>Coffee break (Embassy Suites rest area) 10:00 - 10:30 am</t>
   </si>
   <si>
-    <t>Coffee break (Embassy Suites rest area) 3:30 - 4:00 pm</t>
-  </si>
-  <si>
     <t>Lunch (Embassy Suites Mangroves Grill) 1:30 pm</t>
   </si>
   <si>
@@ -838,22 +830,31 @@
     <t xml:space="preserve">TBO analyses and harmonization with the ICAO framework </t>
   </si>
   <si>
-    <t>Plenary Talk: Bastien Bernard, Director of Operations, Paris Charles de Gaulle Airport</t>
-  </si>
-  <si>
-    <t>Keynote Address: John Bradley and Marty Suech, Federal Aviation Administration</t>
-  </si>
-  <si>
-    <t>Ryan Graves, Quantum Technology Program Manager, Quantum Generative Materials</t>
-  </si>
-  <si>
-    <t>ICRAT 2022 Conference Schedule (v0.6)</t>
+    <t>Keynote Address: John Bradley and Marty Suech, Federal Aviation Administration: AAM NASA/FAA Laboratory Integrated Test Environment (NFLITE)</t>
+  </si>
+  <si>
+    <t>Ryan Graves, Quantum Technology Program Manager, Quantum Generative Materials: Mitigating barriers to the scientific study of Unidentified Aerial Phenomena (UAP): Human Factor considerations of reporting UAP</t>
+  </si>
+  <si>
+    <t>ICRAT 2022 Conference Schedule (v0.7)</t>
+  </si>
+  <si>
+    <t>Plenary Talk: Bastien Bernard, Director of Operations, Paris Charles de Gaulle Airport:  Airport Future: Becoming Intermodality Node &amp; Energy Hub</t>
+  </si>
+  <si>
+    <t>Gala Dinner - Tampa Club (101 E Kennedy Blvd #4200, Tampa, FL 33602) - shuttles will be available from the conference hotels, departing at 5:20 PM</t>
+  </si>
+  <si>
+    <t>Coffee break (Embassy Suites rest area) 3:30 - 3:50 pm</t>
+  </si>
+  <si>
+    <t>Doctoral paper sessions 3:50 - 5:10 pm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
@@ -1597,7 +1598,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2157,28 +2158,34 @@
     <xf numFmtId="0" fontId="32" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="32" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2405,8 +2412,8 @@
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Standard 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2721,14 +2728,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2755,7 +2762,7 @@
     <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="201" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C1" s="201"/>
       <c r="D1" s="201"/>
@@ -2770,7 +2777,7 @@
     <row r="2" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33"/>
       <c r="B2" s="202" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="202"/>
       <c r="D2" s="202"/>
@@ -2785,7 +2792,7 @@
     <row r="3" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
       <c r="B3" s="179" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C3" s="180"/>
       <c r="D3" s="180"/>
@@ -2802,7 +2809,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="B4" s="204" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="204"/>
       <c r="D4" s="204"/>
@@ -2817,7 +2824,7 @@
     <row r="5" spans="1:11" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="140"/>
       <c r="B5" s="216" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="216"/>
       <c r="D5" s="216"/>
@@ -2871,7 +2878,7 @@
     <row r="9" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="208" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="208"/>
       <c r="D9" s="208"/>
@@ -2888,7 +2895,7 @@
         <v>0.34375</v>
       </c>
       <c r="B10" s="206" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="206"/>
       <c r="D10" s="206"/>
@@ -2903,7 +2910,7 @@
     <row r="11" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
       <c r="B11" s="179" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C11" s="180"/>
       <c r="D11" s="180"/>
@@ -2920,7 +2927,7 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="B12" s="211" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="212"/>
       <c r="D12" s="212"/>
@@ -2937,7 +2944,7 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="B13" s="210" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="210"/>
       <c r="D13" s="210"/>
@@ -2950,14 +2957,14 @@
       <c r="K13" s="34"/>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="231" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="231"/>
-      <c r="D14" s="231"/>
-      <c r="E14" s="231"/>
-      <c r="F14" s="231"/>
-      <c r="G14" s="231"/>
+      <c r="B14" s="233" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="233"/>
+      <c r="D14" s="233"/>
+      <c r="E14" s="233"/>
+      <c r="F14" s="233"/>
+      <c r="G14" s="233"/>
       <c r="H14" s="92"/>
       <c r="I14" s="92"/>
       <c r="J14" s="92"/>
@@ -2966,12 +2973,12 @@
     <row r="15" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="35"/>
       <c r="B15" s="191" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C15" s="192"/>
       <c r="D15" s="192"/>
       <c r="E15" s="191" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F15" s="192"/>
       <c r="G15" s="192"/>
@@ -2983,19 +2990,19 @@
       <c r="A16" s="14">
         <v>0.40625</v>
       </c>
-      <c r="B16" s="233" t="s">
-        <v>230</v>
-      </c>
-      <c r="C16" s="234"/>
+      <c r="B16" s="235" t="s">
+        <v>227</v>
+      </c>
+      <c r="C16" s="236"/>
       <c r="D16" s="171" t="s">
-        <v>231</v>
-      </c>
-      <c r="E16" s="233" t="s">
-        <v>242</v>
-      </c>
-      <c r="F16" s="234"/>
+        <v>228</v>
+      </c>
+      <c r="E16" s="235" t="s">
+        <v>239</v>
+      </c>
+      <c r="F16" s="236"/>
       <c r="G16" s="172" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H16" s="62"/>
       <c r="I16" s="95"/>
@@ -3007,7 +3014,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="B17" s="213" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C17" s="213"/>
       <c r="D17" s="213"/>
@@ -3022,7 +3029,7 @@
     <row r="18" spans="1:15" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="215" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="215"/>
       <c r="D18" s="215"/>
@@ -3041,17 +3048,17 @@
     <row r="19" spans="1:15" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="191" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C19" s="192"/>
       <c r="D19" s="192"/>
       <c r="E19" s="191" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F19" s="192"/>
       <c r="G19" s="192"/>
       <c r="H19" s="191" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I19" s="192"/>
       <c r="J19" s="192"/>
@@ -3060,17 +3067,17 @@
     <row r="20" spans="1:15" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="188" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="189"/>
       <c r="D20" s="189"/>
       <c r="E20" s="188" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" s="189"/>
       <c r="G20" s="189"/>
       <c r="H20" s="188" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I20" s="189"/>
       <c r="J20" s="190"/>
@@ -3083,17 +3090,17 @@
     <row r="21" spans="1:15" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="177" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C21" s="178"/>
       <c r="D21" s="178"/>
       <c r="E21" s="177" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F21" s="178"/>
       <c r="G21" s="178"/>
       <c r="H21" s="177" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I21" s="178"/>
       <c r="J21" s="178"/>
@@ -3111,28 +3118,28 @@
         <v>39</v>
       </c>
       <c r="C22" s="113" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="114" t="s">
         <v>87</v>
-      </c>
-      <c r="D22" s="114" t="s">
-        <v>88</v>
       </c>
       <c r="E22" s="82">
         <v>37</v>
       </c>
       <c r="F22" s="125" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="125" t="s">
         <v>95</v>
-      </c>
-      <c r="G22" s="125" t="s">
-        <v>96</v>
       </c>
       <c r="H22" s="87">
         <v>8</v>
       </c>
       <c r="I22" s="128" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" s="121" t="s">
         <v>101</v>
-      </c>
-      <c r="J22" s="121" t="s">
-        <v>102</v>
       </c>
       <c r="K22" s="42"/>
       <c r="L22" s="37"/>
@@ -3148,28 +3155,28 @@
         <v>45</v>
       </c>
       <c r="C23" s="115" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="116" t="s">
         <v>89</v>
-      </c>
-      <c r="D23" s="116" t="s">
-        <v>90</v>
       </c>
       <c r="E23" s="85">
         <v>41</v>
       </c>
       <c r="F23" s="115" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="116" t="s">
         <v>97</v>
-      </c>
-      <c r="G23" s="116" t="s">
-        <v>98</v>
       </c>
       <c r="H23" s="85">
         <v>6</v>
       </c>
       <c r="I23" s="115" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="129" t="s">
         <v>99</v>
-      </c>
-      <c r="J23" s="129" t="s">
-        <v>100</v>
       </c>
       <c r="K23" s="42"/>
       <c r="L23" s="37"/>
@@ -3185,28 +3192,28 @@
         <v>46</v>
       </c>
       <c r="C24" s="117" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="118" t="s">
         <v>91</v>
-      </c>
-      <c r="D24" s="118" t="s">
-        <v>92</v>
       </c>
       <c r="E24" s="83">
         <v>33</v>
       </c>
       <c r="F24" s="115" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="118" t="s">
         <v>93</v>
-      </c>
-      <c r="G24" s="118" t="s">
-        <v>94</v>
       </c>
       <c r="H24" s="84">
         <v>22</v>
       </c>
       <c r="I24" s="123" t="s">
+        <v>102</v>
+      </c>
+      <c r="J24" s="124" t="s">
         <v>103</v>
-      </c>
-      <c r="J24" s="124" t="s">
-        <v>104</v>
       </c>
       <c r="K24" s="42"/>
       <c r="L24" s="37"/>
@@ -3219,7 +3226,7 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="B25" s="198" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C25" s="198"/>
       <c r="D25" s="198"/>
@@ -3238,7 +3245,7 @@
     <row r="26" spans="1:15" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35"/>
       <c r="B26" s="179" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C26" s="180"/>
       <c r="D26" s="180"/>
@@ -3254,17 +3261,17 @@
       <c r="A27" s="16">
         <v>0.59375</v>
       </c>
-      <c r="B27" s="217" t="s">
-        <v>266</v>
-      </c>
-      <c r="C27" s="217"/>
-      <c r="D27" s="217"/>
-      <c r="E27" s="217"/>
-      <c r="F27" s="217"/>
-      <c r="G27" s="217"/>
-      <c r="H27" s="217"/>
-      <c r="I27" s="218"/>
-      <c r="J27" s="218"/>
+      <c r="B27" s="211" t="s">
+        <v>262</v>
+      </c>
+      <c r="C27" s="211"/>
+      <c r="D27" s="211"/>
+      <c r="E27" s="211"/>
+      <c r="F27" s="211"/>
+      <c r="G27" s="211"/>
+      <c r="H27" s="211"/>
+      <c r="I27" s="217"/>
+      <c r="J27" s="217"/>
       <c r="K27" s="29"/>
     </row>
     <row r="28" spans="1:15" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3272,7 +3279,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="B28" s="199" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C28" s="199"/>
       <c r="D28" s="199"/>
@@ -3288,7 +3295,7 @@
     <row r="29" spans="1:15" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="215" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="215"/>
       <c r="D29" s="215"/>
@@ -3303,17 +3310,17 @@
     </row>
     <row r="30" spans="1:15" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="188" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" s="189"/>
       <c r="D30" s="189"/>
       <c r="E30" s="188" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F30" s="189"/>
       <c r="G30" s="189"/>
       <c r="H30" s="188" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I30" s="189"/>
       <c r="J30" s="189"/>
@@ -3322,17 +3329,17 @@
     </row>
     <row r="31" spans="1:15" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="177" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C31" s="178"/>
       <c r="D31" s="178"/>
       <c r="E31" s="177" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F31" s="178"/>
       <c r="G31" s="178"/>
       <c r="H31" s="177" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I31" s="178"/>
       <c r="J31" s="178"/>
@@ -3347,28 +3354,28 @@
         <v>9</v>
       </c>
       <c r="C32" s="113" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="132" t="s">
         <v>105</v>
-      </c>
-      <c r="D32" s="132" t="s">
-        <v>106</v>
       </c>
       <c r="E32" s="88">
         <v>49</v>
       </c>
       <c r="F32" s="117" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" s="135" t="s">
         <v>115</v>
-      </c>
-      <c r="G32" s="135" t="s">
-        <v>116</v>
       </c>
       <c r="H32" s="82">
         <v>19</v>
       </c>
       <c r="I32" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="J32" s="121" t="s">
         <v>117</v>
-      </c>
-      <c r="J32" s="121" t="s">
-        <v>118</v>
       </c>
       <c r="K32" s="44"/>
       <c r="L32" s="20"/>
@@ -3384,28 +3391,28 @@
         <v>50</v>
       </c>
       <c r="C33" s="115" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="133" t="s">
         <v>107</v>
-      </c>
-      <c r="D33" s="133" t="s">
-        <v>108</v>
       </c>
       <c r="E33" s="87">
         <v>27</v>
       </c>
       <c r="F33" s="128" t="s">
+        <v>112</v>
+      </c>
+      <c r="G33" s="125" t="s">
         <v>113</v>
-      </c>
-      <c r="G33" s="125" t="s">
-        <v>114</v>
       </c>
       <c r="H33" s="88">
         <v>20</v>
       </c>
       <c r="I33" s="117" t="s">
+        <v>118</v>
+      </c>
+      <c r="J33" s="134" t="s">
         <v>119</v>
-      </c>
-      <c r="J33" s="134" t="s">
-        <v>120</v>
       </c>
       <c r="K33" s="43"/>
     </row>
@@ -3417,28 +3424,28 @@
         <v>53</v>
       </c>
       <c r="C34" s="117" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="134" t="s">
         <v>109</v>
-      </c>
-      <c r="D34" s="134" t="s">
-        <v>110</v>
       </c>
       <c r="E34" s="89">
         <v>7</v>
       </c>
       <c r="F34" s="123" t="s">
+        <v>110</v>
+      </c>
+      <c r="G34" s="136" t="s">
         <v>111</v>
-      </c>
-      <c r="G34" s="136" t="s">
-        <v>112</v>
       </c>
       <c r="H34" s="89">
         <v>24</v>
       </c>
       <c r="I34" s="115" t="s">
+        <v>120</v>
+      </c>
+      <c r="J34" s="122" t="s">
         <v>121</v>
-      </c>
-      <c r="J34" s="122" t="s">
-        <v>122</v>
       </c>
       <c r="K34" s="43"/>
       <c r="L34"/>
@@ -3502,17 +3509,17 @@
     </row>
     <row r="39" spans="1:15" s="1" customFormat="1" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A39" s="33"/>
-      <c r="B39" s="225" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="225"/>
-      <c r="D39" s="225"/>
-      <c r="E39" s="226"/>
-      <c r="F39" s="226"/>
-      <c r="G39" s="226"/>
-      <c r="H39" s="226"/>
-      <c r="I39" s="226"/>
-      <c r="J39" s="226"/>
+      <c r="B39" s="227" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="227"/>
+      <c r="D39" s="227"/>
+      <c r="E39" s="228"/>
+      <c r="F39" s="228"/>
+      <c r="G39" s="228"/>
+      <c r="H39" s="228"/>
+      <c r="I39" s="228"/>
+      <c r="J39" s="228"/>
       <c r="K39" s="5"/>
       <c r="L39" s="18"/>
     </row>
@@ -3520,22 +3527,22 @@
       <c r="A40" s="13">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B40" s="236" t="s">
-        <v>153</v>
-      </c>
-      <c r="C40" s="236"/>
-      <c r="D40" s="236"/>
-      <c r="E40" s="236"/>
-      <c r="F40" s="236"/>
-      <c r="G40" s="236"/>
-      <c r="H40" s="236"/>
-      <c r="I40" s="237"/>
-      <c r="J40" s="237"/>
+      <c r="B40" s="238" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="238"/>
+      <c r="D40" s="238"/>
+      <c r="E40" s="238"/>
+      <c r="F40" s="238"/>
+      <c r="G40" s="238"/>
+      <c r="H40" s="238"/>
+      <c r="I40" s="239"/>
+      <c r="J40" s="239"/>
     </row>
     <row r="41" spans="1:15" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
       <c r="B41" s="179" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C41" s="180"/>
       <c r="D41" s="180"/>
@@ -3551,15 +3558,15 @@
       <c r="A42" s="14">
         <v>0.38541666666666669</v>
       </c>
-      <c r="B42" s="217" t="s">
+      <c r="B42" s="212" t="s">
         <v>265</v>
       </c>
-      <c r="C42" s="217"/>
-      <c r="D42" s="217"/>
-      <c r="E42" s="217"/>
-      <c r="F42" s="217"/>
-      <c r="G42" s="217"/>
-      <c r="H42" s="217"/>
+      <c r="C42" s="212"/>
+      <c r="D42" s="212"/>
+      <c r="E42" s="212"/>
+      <c r="F42" s="212"/>
+      <c r="G42" s="212"/>
+      <c r="H42" s="212"/>
       <c r="I42" s="218"/>
       <c r="J42" s="218"/>
       <c r="K42" s="29"/>
@@ -3570,7 +3577,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="B43" s="213" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C43" s="213"/>
       <c r="D43" s="213"/>
@@ -3584,37 +3591,37 @@
       <c r="L43" s="18"/>
     </row>
     <row r="44" spans="1:15" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="231" t="s">
+      <c r="B44" s="233" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="231"/>
-      <c r="D44" s="231"/>
-      <c r="E44" s="231"/>
-      <c r="F44" s="231"/>
-      <c r="G44" s="231"/>
-      <c r="H44" s="231"/>
-      <c r="I44" s="231"/>
-      <c r="J44" s="231"/>
+      <c r="C44" s="233"/>
+      <c r="D44" s="233"/>
+      <c r="E44" s="233"/>
+      <c r="F44" s="233"/>
+      <c r="G44" s="233"/>
+      <c r="H44" s="233"/>
+      <c r="I44" s="233"/>
+      <c r="J44" s="233"/>
       <c r="K44" s="5"/>
       <c r="L44"/>
     </row>
     <row r="45" spans="1:15" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="35"/>
       <c r="B45" s="191" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C45" s="192"/>
       <c r="D45" s="192"/>
       <c r="E45" s="191" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F45" s="192"/>
       <c r="G45" s="192"/>
       <c r="H45" s="191" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I45" s="192"/>
-      <c r="J45" s="235"/>
+      <c r="J45" s="237"/>
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:15" s="1" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3622,25 +3629,25 @@
         <v>0.4375</v>
       </c>
       <c r="B46" s="183" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C46" s="184"/>
       <c r="D46" s="173" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E46" s="183" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F46" s="184"/>
       <c r="G46" s="173" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H46" s="183" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I46" s="184"/>
       <c r="J46" s="174" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K46" s="40"/>
       <c r="L46" s="91"/>
@@ -3653,7 +3660,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="B47" s="198" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C47" s="198"/>
       <c r="D47" s="198"/>
@@ -3709,17 +3716,17 @@
     </row>
     <row r="51" spans="1:16" s="52" customFormat="1" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A51" s="33"/>
-      <c r="B51" s="225" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="225"/>
-      <c r="D51" s="225"/>
-      <c r="E51" s="226"/>
-      <c r="F51" s="226"/>
-      <c r="G51" s="226"/>
-      <c r="H51" s="226"/>
-      <c r="I51" s="226"/>
-      <c r="J51" s="226"/>
+      <c r="B51" s="227" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="227"/>
+      <c r="D51" s="227"/>
+      <c r="E51" s="228"/>
+      <c r="F51" s="228"/>
+      <c r="G51" s="228"/>
+      <c r="H51" s="228"/>
+      <c r="I51" s="228"/>
+      <c r="J51" s="228"/>
       <c r="K51" s="60"/>
       <c r="L51" s="61"/>
     </row>
@@ -3727,24 +3734,24 @@
       <c r="A52" s="13">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B52" s="236" t="s">
-        <v>153</v>
-      </c>
-      <c r="C52" s="236"/>
-      <c r="D52" s="236"/>
-      <c r="E52" s="236"/>
-      <c r="F52" s="236"/>
-      <c r="G52" s="236"/>
-      <c r="H52" s="236"/>
-      <c r="I52" s="237"/>
-      <c r="J52" s="237"/>
+      <c r="B52" s="238" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="238"/>
+      <c r="D52" s="238"/>
+      <c r="E52" s="238"/>
+      <c r="F52" s="238"/>
+      <c r="G52" s="238"/>
+      <c r="H52" s="238"/>
+      <c r="I52" s="239"/>
+      <c r="J52" s="239"/>
       <c r="K52" s="2"/>
       <c r="L52"/>
     </row>
     <row r="53" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="35"/>
       <c r="B53" s="179" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C53" s="180"/>
       <c r="D53" s="180"/>
@@ -3760,17 +3767,17 @@
       <c r="A54" s="14">
         <v>0.38541666666666669</v>
       </c>
-      <c r="B54" s="217" t="s">
-        <v>267</v>
-      </c>
-      <c r="C54" s="217"/>
-      <c r="D54" s="217"/>
-      <c r="E54" s="217"/>
-      <c r="F54" s="217"/>
-      <c r="G54" s="217"/>
-      <c r="H54" s="217"/>
-      <c r="I54" s="218"/>
-      <c r="J54" s="218"/>
+      <c r="B54" s="212" t="s">
+        <v>263</v>
+      </c>
+      <c r="C54" s="225"/>
+      <c r="D54" s="225"/>
+      <c r="E54" s="225"/>
+      <c r="F54" s="225"/>
+      <c r="G54" s="225"/>
+      <c r="H54" s="225"/>
+      <c r="I54" s="226"/>
+      <c r="J54" s="226"/>
       <c r="K54" s="29"/>
       <c r="L54" s="30"/>
     </row>
@@ -3779,7 +3786,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="B55" s="213" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C55" s="213"/>
       <c r="D55" s="213"/>
@@ -3793,62 +3800,62 @@
       <c r="L55"/>
     </row>
     <row r="56" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="240" t="s">
+      <c r="B56" s="242" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="240"/>
-      <c r="D56" s="240"/>
-      <c r="E56" s="240"/>
-      <c r="F56" s="240"/>
-      <c r="G56" s="240"/>
-      <c r="H56" s="240"/>
-      <c r="I56" s="240"/>
-      <c r="J56" s="240"/>
+      <c r="C56" s="242"/>
+      <c r="D56" s="242"/>
+      <c r="E56" s="242"/>
+      <c r="F56" s="242"/>
+      <c r="G56" s="242"/>
+      <c r="H56" s="242"/>
+      <c r="I56" s="242"/>
+      <c r="J56" s="242"/>
       <c r="K56" s="2"/>
     </row>
     <row r="57" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35"/>
       <c r="B57" s="191" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C57" s="192"/>
       <c r="D57" s="192"/>
       <c r="E57" s="191" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F57" s="192"/>
       <c r="G57" s="192"/>
       <c r="H57" s="191" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I57" s="192"/>
       <c r="J57" s="192"/>
       <c r="K57" s="43"/>
     </row>
     <row r="58" spans="1:16" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="232">
+      <c r="A58" s="234">
         <v>0.4375</v>
       </c>
       <c r="B58" s="183" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C58" s="184"/>
       <c r="D58" s="184" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E58" s="183" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F58" s="184"/>
       <c r="G58" s="184" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H58" s="183" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I58" s="184"/>
-      <c r="J58" s="238" t="s">
-        <v>264</v>
+      <c r="J58" s="240" t="s">
+        <v>261</v>
       </c>
       <c r="K58" s="62"/>
       <c r="L58" s="62"/>
@@ -3856,16 +3863,16 @@
       <c r="O58" s="28"/>
     </row>
     <row r="59" spans="1:16" s="1" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="232"/>
-      <c r="B59" s="241"/>
-      <c r="C59" s="242"/>
-      <c r="D59" s="242"/>
+      <c r="A59" s="234"/>
+      <c r="B59" s="243"/>
+      <c r="C59" s="244"/>
+      <c r="D59" s="244"/>
       <c r="E59" s="185"/>
       <c r="F59" s="186"/>
       <c r="G59" s="186"/>
       <c r="H59" s="185"/>
       <c r="I59" s="186"/>
-      <c r="J59" s="239"/>
+      <c r="J59" s="241"/>
       <c r="K59" s="62"/>
       <c r="L59" s="62"/>
       <c r="N59" s="10"/>
@@ -3876,7 +3883,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="B60" s="198" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C60" s="198"/>
       <c r="D60" s="198"/>
@@ -3911,17 +3918,17 @@
     <row r="62" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="35"/>
       <c r="B62" s="191" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C62" s="192"/>
       <c r="D62" s="192"/>
       <c r="E62" s="191" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F62" s="192"/>
       <c r="G62" s="192"/>
       <c r="H62" s="191" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I62" s="192"/>
       <c r="J62" s="192"/>
@@ -3935,17 +3942,17 @@
     <row r="63" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="13"/>
       <c r="B63" s="188" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C63" s="189"/>
       <c r="D63" s="189"/>
       <c r="E63" s="188" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F63" s="189"/>
       <c r="G63" s="189"/>
       <c r="H63" s="188" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I63" s="189"/>
       <c r="J63" s="189"/>
@@ -3959,17 +3966,17 @@
     <row r="64" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
       <c r="B64" s="177" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C64" s="178"/>
       <c r="D64" s="178"/>
       <c r="E64" s="177" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F64" s="178"/>
       <c r="G64" s="178"/>
       <c r="H64" s="177" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I64" s="178"/>
       <c r="J64" s="178"/>
@@ -3988,28 +3995,28 @@
         <v>5</v>
       </c>
       <c r="C65" s="113" t="s">
+        <v>122</v>
+      </c>
+      <c r="D65" s="132" t="s">
         <v>123</v>
-      </c>
-      <c r="D65" s="132" t="s">
-        <v>124</v>
       </c>
       <c r="E65" s="86">
         <v>10</v>
       </c>
       <c r="F65" s="113" t="s">
+        <v>128</v>
+      </c>
+      <c r="G65" s="119" t="s">
         <v>129</v>
-      </c>
-      <c r="G65" s="119" t="s">
-        <v>130</v>
       </c>
       <c r="H65" s="86">
         <v>30</v>
       </c>
       <c r="I65" s="113" t="s">
+        <v>134</v>
+      </c>
+      <c r="J65" s="114" t="s">
         <v>135</v>
-      </c>
-      <c r="J65" s="114" t="s">
-        <v>136</v>
       </c>
       <c r="K65" s="26"/>
       <c r="L65" s="26"/>
@@ -4026,28 +4033,28 @@
         <v>13</v>
       </c>
       <c r="C66" s="133" t="s">
+        <v>124</v>
+      </c>
+      <c r="D66" s="133" t="s">
         <v>125</v>
-      </c>
-      <c r="D66" s="133" t="s">
-        <v>126</v>
       </c>
       <c r="E66" s="87">
         <v>12</v>
       </c>
       <c r="F66" s="120" t="s">
+        <v>130</v>
+      </c>
+      <c r="G66" s="120" t="s">
         <v>131</v>
-      </c>
-      <c r="G66" s="120" t="s">
-        <v>132</v>
       </c>
       <c r="H66" s="87">
         <v>38</v>
       </c>
       <c r="I66" s="115" t="s">
+        <v>136</v>
+      </c>
+      <c r="J66" s="116" t="s">
         <v>137</v>
-      </c>
-      <c r="J66" s="116" t="s">
-        <v>138</v>
       </c>
       <c r="K66" s="45"/>
       <c r="L66" s="26"/>
@@ -4064,28 +4071,28 @@
         <v>15</v>
       </c>
       <c r="C67" s="117" t="s">
+        <v>126</v>
+      </c>
+      <c r="D67" s="134" t="s">
         <v>127</v>
-      </c>
-      <c r="D67" s="134" t="s">
-        <v>128</v>
       </c>
       <c r="E67" s="89">
         <v>31</v>
       </c>
       <c r="F67" s="117" t="s">
+        <v>132</v>
+      </c>
+      <c r="G67" s="135" t="s">
         <v>133</v>
-      </c>
-      <c r="G67" s="135" t="s">
-        <v>134</v>
       </c>
       <c r="H67" s="89">
         <v>47</v>
       </c>
       <c r="I67" s="117" t="s">
+        <v>138</v>
+      </c>
+      <c r="J67" s="118" t="s">
         <v>139</v>
-      </c>
-      <c r="J67" s="118" t="s">
-        <v>140</v>
       </c>
       <c r="K67" s="43"/>
       <c r="L67" s="105"/>
@@ -4099,7 +4106,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="B68" s="199" t="s">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="C68" s="199"/>
       <c r="D68" s="199"/>
@@ -4115,7 +4122,7 @@
     <row r="69" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="13"/>
       <c r="B69" s="187" t="s">
-        <v>22</v>
+        <v>268</v>
       </c>
       <c r="C69" s="187"/>
       <c r="D69" s="187"/>
@@ -4129,37 +4136,37 @@
       <c r="L69" s="18"/>
     </row>
     <row r="70" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="229" t="s">
+      <c r="B70" s="231" t="s">
+        <v>161</v>
+      </c>
+      <c r="C70" s="232"/>
+      <c r="D70" s="232"/>
+      <c r="E70" s="231" t="s">
+        <v>162</v>
+      </c>
+      <c r="F70" s="232"/>
+      <c r="G70" s="232"/>
+      <c r="H70" s="231" t="s">
         <v>163</v>
       </c>
-      <c r="C70" s="230"/>
-      <c r="D70" s="230"/>
-      <c r="E70" s="229" t="s">
-        <v>164</v>
-      </c>
-      <c r="F70" s="230"/>
-      <c r="G70" s="230"/>
-      <c r="H70" s="229" t="s">
-        <v>165</v>
-      </c>
-      <c r="I70" s="230"/>
-      <c r="J70" s="230"/>
+      <c r="I70" s="232"/>
+      <c r="J70" s="232"/>
       <c r="K70" s="46"/>
       <c r="L70" s="39"/>
     </row>
     <row r="71" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="195" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C71" s="196"/>
       <c r="D71" s="196"/>
       <c r="E71" s="195" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F71" s="196"/>
       <c r="G71" s="196"/>
       <c r="H71" s="195" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I71" s="196"/>
       <c r="J71" s="196"/>
@@ -4168,34 +4175,34 @@
     </row>
     <row r="72" spans="1:16" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="41">
-        <v>0.66666666666666663</v>
+        <v>0.65972222222222221</v>
       </c>
       <c r="B72" s="152">
         <v>16</v>
       </c>
       <c r="C72" s="158" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D72" s="162" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E72" s="152">
         <v>23</v>
       </c>
       <c r="F72" s="158" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G72" s="161" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H72" s="152">
         <v>18</v>
       </c>
       <c r="I72" s="158" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J72" s="162" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K72" s="19"/>
       <c r="L72" s="20"/>
@@ -4206,34 +4213,34 @@
     </row>
     <row r="73" spans="1:16" s="1" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="41">
-        <v>0.69444444444444453</v>
+        <v>0.6875</v>
       </c>
       <c r="B73" s="153">
         <v>44</v>
       </c>
       <c r="C73" s="159" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D73" s="160" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E73" s="153">
         <v>28</v>
       </c>
       <c r="F73" s="159" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G73" s="159" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H73" s="154">
         <v>21</v>
       </c>
       <c r="I73" s="163" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J73" s="164" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K73" s="3"/>
       <c r="N73" s="26"/>
@@ -4242,7 +4249,7 @@
     </row>
     <row r="74" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
-        <v>0.72222222222222221</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="B74" s="198" t="s">
         <v>0</v>
@@ -4262,17 +4269,17 @@
       <c r="A75" s="141">
         <v>0.77083333333333337</v>
       </c>
-      <c r="B75" s="252" t="s">
-        <v>156</v>
-      </c>
-      <c r="C75" s="252"/>
-      <c r="D75" s="252"/>
-      <c r="E75" s="252"/>
-      <c r="F75" s="252"/>
-      <c r="G75" s="252"/>
-      <c r="H75" s="252"/>
-      <c r="I75" s="252"/>
-      <c r="J75" s="252"/>
+      <c r="B75" s="254" t="s">
+        <v>266</v>
+      </c>
+      <c r="C75" s="254"/>
+      <c r="D75" s="254"/>
+      <c r="E75" s="254"/>
+      <c r="F75" s="254"/>
+      <c r="G75" s="254"/>
+      <c r="H75" s="254"/>
+      <c r="I75" s="254"/>
+      <c r="J75" s="254"/>
       <c r="K75" s="5"/>
     </row>
     <row r="76" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -4319,14 +4326,14 @@
     </row>
     <row r="79" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12"/>
-      <c r="B79" s="225" t="s">
-        <v>66</v>
-      </c>
-      <c r="C79" s="225"/>
-      <c r="D79" s="225"/>
-      <c r="E79" s="225"/>
-      <c r="F79" s="225"/>
-      <c r="G79" s="225"/>
+      <c r="B79" s="227" t="s">
+        <v>65</v>
+      </c>
+      <c r="C79" s="227"/>
+      <c r="D79" s="227"/>
+      <c r="E79" s="227"/>
+      <c r="F79" s="227"/>
+      <c r="G79" s="227"/>
       <c r="H79" s="150"/>
       <c r="I79" s="150"/>
       <c r="J79" s="150"/>
@@ -4338,18 +4345,18 @@
     <row r="80" spans="1:16" s="9" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14"/>
       <c r="B80" s="191" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C80" s="192"/>
       <c r="D80" s="192"/>
       <c r="E80" s="191" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F80" s="192"/>
       <c r="G80" s="192"/>
-      <c r="H80" s="227"/>
-      <c r="I80" s="228"/>
-      <c r="J80" s="228"/>
+      <c r="H80" s="229"/>
+      <c r="I80" s="230"/>
+      <c r="J80" s="230"/>
       <c r="K80" s="23"/>
     </row>
     <row r="81" spans="1:12" s="9" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4361,11 +4368,11 @@
       </c>
       <c r="C81" s="222"/>
       <c r="D81" s="223"/>
-      <c r="E81" s="245" t="s">
-        <v>154</v>
-      </c>
-      <c r="F81" s="246"/>
-      <c r="G81" s="247"/>
+      <c r="E81" s="247" t="s">
+        <v>153</v>
+      </c>
+      <c r="F81" s="248"/>
+      <c r="G81" s="249"/>
       <c r="H81" s="143"/>
       <c r="I81" s="143"/>
       <c r="J81" s="143"/>
@@ -4373,34 +4380,34 @@
     </row>
     <row r="82" spans="1:12" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="14"/>
-      <c r="B82" s="229" t="s">
-        <v>166</v>
-      </c>
-      <c r="C82" s="230"/>
-      <c r="D82" s="230"/>
+      <c r="B82" s="231" t="s">
+        <v>164</v>
+      </c>
+      <c r="C82" s="232"/>
+      <c r="D82" s="232"/>
       <c r="E82" s="188" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F82" s="189"/>
       <c r="G82" s="189"/>
-      <c r="H82" s="253"/>
-      <c r="I82" s="254"/>
-      <c r="J82" s="254"/>
+      <c r="H82" s="255"/>
+      <c r="I82" s="256"/>
+      <c r="J82" s="256"/>
       <c r="K82" s="39"/>
       <c r="L82" s="39"/>
     </row>
     <row r="83" spans="1:12" s="9" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="14"/>
       <c r="B83" s="195" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C83" s="196"/>
       <c r="D83" s="196"/>
       <c r="E83" s="177" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F83" s="178"/>
-      <c r="G83" s="255"/>
+      <c r="G83" s="257"/>
       <c r="H83" s="197"/>
       <c r="I83" s="197"/>
       <c r="J83" s="197"/>
@@ -4415,19 +4422,19 @@
         <v>51</v>
       </c>
       <c r="C84" s="158" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D84" s="158" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E84" s="86">
         <v>36</v>
       </c>
       <c r="F84" s="113" t="s">
+        <v>140</v>
+      </c>
+      <c r="G84" s="114" t="s">
         <v>141</v>
-      </c>
-      <c r="G84" s="114" t="s">
-        <v>142</v>
       </c>
       <c r="H84" s="103"/>
       <c r="I84" s="101"/>
@@ -4443,19 +4450,19 @@
         <v>32</v>
       </c>
       <c r="C85" s="165" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D85" s="165" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E85" s="85">
         <v>52</v>
       </c>
       <c r="F85" s="115" t="s">
+        <v>142</v>
+      </c>
+      <c r="G85" s="120" t="s">
         <v>143</v>
-      </c>
-      <c r="G85" s="120" t="s">
-        <v>144</v>
       </c>
       <c r="H85" s="100"/>
       <c r="I85" s="101"/>
@@ -4467,14 +4474,14 @@
       <c r="A86" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B86" s="244" t="s">
-        <v>222</v>
-      </c>
-      <c r="C86" s="244"/>
-      <c r="D86" s="244"/>
-      <c r="E86" s="244"/>
-      <c r="F86" s="244"/>
-      <c r="G86" s="244"/>
+      <c r="B86" s="246" t="s">
+        <v>219</v>
+      </c>
+      <c r="C86" s="246"/>
+      <c r="D86" s="246"/>
+      <c r="E86" s="246"/>
+      <c r="F86" s="246"/>
+      <c r="G86" s="246"/>
       <c r="H86" s="144"/>
       <c r="I86" s="144"/>
       <c r="J86" s="144"/>
@@ -4482,16 +4489,16 @@
     </row>
     <row r="87" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="13"/>
-      <c r="B87" s="248" t="s">
-        <v>155</v>
-      </c>
-      <c r="C87" s="249"/>
-      <c r="D87" s="250"/>
-      <c r="E87" s="251" t="s">
+      <c r="B87" s="250" t="s">
+        <v>154</v>
+      </c>
+      <c r="C87" s="251"/>
+      <c r="D87" s="252"/>
+      <c r="E87" s="253" t="s">
         <v>17</v>
       </c>
-      <c r="F87" s="251"/>
-      <c r="G87" s="251"/>
+      <c r="F87" s="253"/>
+      <c r="G87" s="253"/>
       <c r="H87" s="219"/>
       <c r="I87" s="220"/>
       <c r="J87" s="220"/>
@@ -4499,13 +4506,13 @@
     </row>
     <row r="88" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="13"/>
-      <c r="B88" s="229" t="s">
-        <v>167</v>
-      </c>
-      <c r="C88" s="230"/>
-      <c r="D88" s="230"/>
+      <c r="B88" s="231" t="s">
+        <v>165</v>
+      </c>
+      <c r="C88" s="232"/>
+      <c r="D88" s="232"/>
       <c r="E88" s="188" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F88" s="189"/>
       <c r="G88" s="189"/>
@@ -4518,12 +4525,12 @@
     <row r="89" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13"/>
       <c r="B89" s="195" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C89" s="196"/>
       <c r="D89" s="196"/>
       <c r="E89" s="177" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F89" s="178"/>
       <c r="G89" s="178"/>
@@ -4541,19 +4548,19 @@
         <v>2</v>
       </c>
       <c r="C90" s="158" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D90" s="166" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E90" s="86">
         <v>1</v>
       </c>
       <c r="F90" s="113" t="s">
+        <v>144</v>
+      </c>
+      <c r="G90" s="119" t="s">
         <v>145</v>
-      </c>
-      <c r="G90" s="119" t="s">
-        <v>146</v>
       </c>
       <c r="H90" s="147"/>
       <c r="I90" s="101"/>
@@ -4568,19 +4575,19 @@
         <v>25</v>
       </c>
       <c r="C91" s="167" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D91" s="168" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E91" s="85">
         <v>48</v>
       </c>
       <c r="F91" s="120" t="s">
+        <v>148</v>
+      </c>
+      <c r="G91" s="120" t="s">
         <v>149</v>
-      </c>
-      <c r="G91" s="120" t="s">
-        <v>150</v>
       </c>
       <c r="H91" s="147"/>
       <c r="I91" s="101"/>
@@ -4595,19 +4602,19 @@
         <v>43</v>
       </c>
       <c r="C92" s="159" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D92" s="169" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E92" s="88">
         <v>26</v>
       </c>
       <c r="F92" s="138" t="s">
+        <v>146</v>
+      </c>
+      <c r="G92" s="139" t="s">
         <v>147</v>
-      </c>
-      <c r="G92" s="139" t="s">
-        <v>148</v>
       </c>
       <c r="H92" s="142"/>
       <c r="I92" s="101"/>
@@ -4618,7 +4625,7 @@
     <row r="93" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
       <c r="B93" s="175" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C93" s="175"/>
       <c r="D93" s="175"/>
@@ -4635,14 +4642,14 @@
       <c r="A94" s="13">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B94" s="243" t="s">
+      <c r="B94" s="245" t="s">
         <v>1</v>
       </c>
-      <c r="C94" s="243"/>
-      <c r="D94" s="243"/>
-      <c r="E94" s="243"/>
-      <c r="F94" s="243"/>
-      <c r="G94" s="243"/>
+      <c r="C94" s="245"/>
+      <c r="D94" s="245"/>
+      <c r="E94" s="245"/>
+      <c r="F94" s="245"/>
+      <c r="G94" s="245"/>
       <c r="H94" s="145"/>
       <c r="I94" s="145"/>
       <c r="J94" s="145"/>
@@ -4650,7 +4657,7 @@
     </row>
     <row r="95" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="198" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C95" s="198"/>
       <c r="D95" s="198"/>
@@ -4792,7 +4799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:H60"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
@@ -4807,10 +4814,10 @@
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="48" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="48" t="s">
         <v>2</v>
@@ -4818,10 +4825,10 @@
       <c r="F3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="262" t="s">
+      <c r="G3" s="264" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="262"/>
+      <c r="H3" s="264"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="49">
@@ -4836,10 +4843,10 @@
       <c r="F4" s="49">
         <v>44734</v>
       </c>
-      <c r="G4" s="263">
+      <c r="G4" s="265">
         <v>44735</v>
       </c>
-      <c r="H4" s="263"/>
+      <c r="H4" s="265"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="50">
@@ -4859,8 +4866,8 @@
       </c>
       <c r="B6" s="50"/>
       <c r="C6" s="50"/>
-      <c r="D6" s="280" t="s">
-        <v>160</v>
+      <c r="D6" s="282" t="s">
+        <v>158</v>
       </c>
       <c r="E6" s="50"/>
       <c r="F6" s="50"/>
@@ -4873,7 +4880,7 @@
       </c>
       <c r="B7" s="50"/>
       <c r="C7" s="50"/>
-      <c r="D7" s="281"/>
+      <c r="D7" s="283"/>
       <c r="E7" s="50"/>
       <c r="F7" s="50"/>
       <c r="G7" s="50"/>
@@ -4885,7 +4892,7 @@
       </c>
       <c r="B8" s="50"/>
       <c r="C8" s="50"/>
-      <c r="D8" s="281"/>
+      <c r="D8" s="283"/>
       <c r="E8" s="50"/>
       <c r="F8" s="50"/>
       <c r="G8" s="50"/>
@@ -4897,14 +4904,14 @@
       </c>
       <c r="B9" s="50"/>
       <c r="C9" s="50"/>
-      <c r="D9" s="281"/>
+      <c r="D9" s="283"/>
       <c r="E9" s="50"/>
       <c r="F9" s="50"/>
-      <c r="G9" s="264" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="267" t="s">
-        <v>37</v>
+      <c r="G9" s="266" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="269" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4913,15 +4920,15 @@
       </c>
       <c r="B10" s="50"/>
       <c r="C10" s="50"/>
-      <c r="D10" s="281"/>
-      <c r="E10" s="280" t="s">
-        <v>162</v>
-      </c>
-      <c r="F10" s="280" t="s">
-        <v>162</v>
-      </c>
-      <c r="G10" s="265"/>
-      <c r="H10" s="268"/>
+      <c r="D10" s="283"/>
+      <c r="E10" s="282" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="282" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="267"/>
+      <c r="H10" s="270"/>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="50">
@@ -4929,11 +4936,11 @@
       </c>
       <c r="B11" s="50"/>
       <c r="C11" s="50"/>
-      <c r="D11" s="282"/>
-      <c r="E11" s="281"/>
-      <c r="F11" s="281"/>
-      <c r="G11" s="265"/>
-      <c r="H11" s="268"/>
+      <c r="D11" s="284"/>
+      <c r="E11" s="283"/>
+      <c r="F11" s="283"/>
+      <c r="G11" s="267"/>
+      <c r="H11" s="270"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="50">
@@ -4941,13 +4948,13 @@
       </c>
       <c r="B12" s="50"/>
       <c r="C12" s="50"/>
-      <c r="D12" s="285" t="s">
+      <c r="D12" s="287" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="282"/>
-      <c r="F12" s="282"/>
-      <c r="G12" s="265"/>
-      <c r="H12" s="268"/>
+      <c r="E12" s="284"/>
+      <c r="F12" s="284"/>
+      <c r="G12" s="267"/>
+      <c r="H12" s="270"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="50">
@@ -4955,15 +4962,15 @@
       </c>
       <c r="B13" s="50"/>
       <c r="C13" s="50"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="283" t="s">
+      <c r="D13" s="288"/>
+      <c r="E13" s="285" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="283" t="s">
+      <c r="F13" s="285" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="265"/>
-      <c r="H13" s="268"/>
+      <c r="G13" s="267"/>
+      <c r="H13" s="270"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="50">
@@ -4971,11 +4978,11 @@
       </c>
       <c r="B14" s="50"/>
       <c r="C14" s="50"/>
-      <c r="D14" s="286"/>
-      <c r="E14" s="284"/>
-      <c r="F14" s="284"/>
-      <c r="G14" s="266"/>
-      <c r="H14" s="269"/>
+      <c r="D14" s="288"/>
+      <c r="E14" s="286"/>
+      <c r="F14" s="286"/>
+      <c r="G14" s="268"/>
+      <c r="H14" s="271"/>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="50">
@@ -4983,17 +4990,17 @@
       </c>
       <c r="B15" s="50"/>
       <c r="C15" s="50"/>
-      <c r="D15" s="287"/>
-      <c r="E15" s="285" t="s">
+      <c r="D15" s="289"/>
+      <c r="E15" s="287" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="285" t="s">
+      <c r="F15" s="287" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="270" t="s">
+      <c r="G15" s="272" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="271"/>
+      <c r="H15" s="273"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="50">
@@ -5001,13 +5008,13 @@
       </c>
       <c r="B16" s="50"/>
       <c r="C16" s="50"/>
-      <c r="D16" s="283" t="s">
+      <c r="D16" s="285" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="286"/>
-      <c r="F16" s="286"/>
-      <c r="G16" s="272"/>
-      <c r="H16" s="273"/>
+      <c r="E16" s="288"/>
+      <c r="F16" s="288"/>
+      <c r="G16" s="274"/>
+      <c r="H16" s="275"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="50">
@@ -5015,14 +5022,14 @@
       </c>
       <c r="B17" s="50"/>
       <c r="C17" s="50"/>
-      <c r="D17" s="284"/>
-      <c r="E17" s="286"/>
-      <c r="F17" s="286"/>
-      <c r="G17" s="264" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="267" t="s">
-        <v>32</v>
+      <c r="D17" s="286"/>
+      <c r="E17" s="288"/>
+      <c r="F17" s="288"/>
+      <c r="G17" s="266" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="269" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5031,13 +5038,13 @@
       </c>
       <c r="B18" s="50"/>
       <c r="C18" s="50"/>
-      <c r="D18" s="267" t="s">
+      <c r="D18" s="269" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="286"/>
-      <c r="F18" s="286"/>
-      <c r="G18" s="265"/>
-      <c r="H18" s="268"/>
+      <c r="E18" s="288"/>
+      <c r="F18" s="288"/>
+      <c r="G18" s="267"/>
+      <c r="H18" s="270"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="50">
@@ -5045,11 +5052,11 @@
       </c>
       <c r="B19" s="50"/>
       <c r="C19" s="50"/>
-      <c r="D19" s="268"/>
-      <c r="E19" s="286"/>
-      <c r="F19" s="286"/>
-      <c r="G19" s="265"/>
-      <c r="H19" s="268"/>
+      <c r="D19" s="270"/>
+      <c r="E19" s="288"/>
+      <c r="F19" s="288"/>
+      <c r="G19" s="267"/>
+      <c r="H19" s="270"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="50">
@@ -5057,11 +5064,11 @@
       </c>
       <c r="B20" s="50"/>
       <c r="C20" s="50"/>
-      <c r="D20" s="268"/>
-      <c r="E20" s="286"/>
-      <c r="F20" s="286"/>
-      <c r="G20" s="265"/>
-      <c r="H20" s="268"/>
+      <c r="D20" s="270"/>
+      <c r="E20" s="288"/>
+      <c r="F20" s="288"/>
+      <c r="G20" s="267"/>
+      <c r="H20" s="270"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="50">
@@ -5069,11 +5076,11 @@
       </c>
       <c r="B21" s="50"/>
       <c r="C21" s="50"/>
-      <c r="D21" s="268"/>
-      <c r="E21" s="286"/>
-      <c r="F21" s="286"/>
-      <c r="G21" s="265"/>
-      <c r="H21" s="268"/>
+      <c r="D21" s="270"/>
+      <c r="E21" s="288"/>
+      <c r="F21" s="288"/>
+      <c r="G21" s="267"/>
+      <c r="H21" s="270"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="50">
@@ -5081,11 +5088,11 @@
       </c>
       <c r="B22" s="50"/>
       <c r="C22" s="50"/>
-      <c r="D22" s="268"/>
-      <c r="E22" s="287"/>
-      <c r="F22" s="287"/>
-      <c r="G22" s="265"/>
-      <c r="H22" s="268"/>
+      <c r="D22" s="270"/>
+      <c r="E22" s="289"/>
+      <c r="F22" s="289"/>
+      <c r="G22" s="267"/>
+      <c r="H22" s="270"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="50">
@@ -5093,15 +5100,15 @@
       </c>
       <c r="B23" s="50"/>
       <c r="C23" s="50"/>
-      <c r="D23" s="268"/>
-      <c r="E23" s="288" t="s">
+      <c r="D23" s="270"/>
+      <c r="E23" s="290" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="288" t="s">
+      <c r="F23" s="290" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="265"/>
-      <c r="H23" s="268"/>
+      <c r="G23" s="267"/>
+      <c r="H23" s="270"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="50">
@@ -5109,11 +5116,11 @@
       </c>
       <c r="B24" s="50"/>
       <c r="C24" s="50"/>
-      <c r="D24" s="268"/>
-      <c r="E24" s="289"/>
-      <c r="F24" s="289"/>
-      <c r="G24" s="266"/>
-      <c r="H24" s="269"/>
+      <c r="D24" s="270"/>
+      <c r="E24" s="291"/>
+      <c r="F24" s="291"/>
+      <c r="G24" s="268"/>
+      <c r="H24" s="271"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="50">
@@ -5121,13 +5128,13 @@
       </c>
       <c r="B25" s="50"/>
       <c r="C25" s="50"/>
-      <c r="D25" s="269"/>
-      <c r="E25" s="289"/>
-      <c r="F25" s="289"/>
-      <c r="G25" s="274" t="s">
-        <v>57</v>
-      </c>
-      <c r="H25" s="275"/>
+      <c r="D25" s="271"/>
+      <c r="E25" s="291"/>
+      <c r="F25" s="291"/>
+      <c r="G25" s="276" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="277"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="50">
@@ -5135,13 +5142,13 @@
       </c>
       <c r="B26" s="50"/>
       <c r="C26" s="50"/>
-      <c r="D26" s="288" t="s">
+      <c r="D26" s="290" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="290"/>
-      <c r="F26" s="290"/>
-      <c r="G26" s="276"/>
-      <c r="H26" s="277"/>
+      <c r="E26" s="292"/>
+      <c r="F26" s="292"/>
+      <c r="G26" s="278"/>
+      <c r="H26" s="279"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="50">
@@ -5149,15 +5156,15 @@
       </c>
       <c r="B27" s="50"/>
       <c r="C27" s="50"/>
-      <c r="D27" s="289"/>
+      <c r="D27" s="291"/>
       <c r="E27" s="50"/>
-      <c r="F27" s="267" t="s">
+      <c r="F27" s="269" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="256" t="s">
+      <c r="G27" s="258" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="257"/>
+      <c r="H27" s="259"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="50">
@@ -5165,11 +5172,11 @@
       </c>
       <c r="B28" s="50"/>
       <c r="C28" s="50"/>
-      <c r="D28" s="289"/>
+      <c r="D28" s="291"/>
       <c r="E28" s="50"/>
-      <c r="F28" s="268"/>
-      <c r="G28" s="258"/>
-      <c r="H28" s="259"/>
+      <c r="F28" s="270"/>
+      <c r="G28" s="260"/>
+      <c r="H28" s="261"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="50">
@@ -5177,11 +5184,11 @@
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="50"/>
-      <c r="D29" s="290"/>
+      <c r="D29" s="292"/>
       <c r="E29" s="50"/>
-      <c r="F29" s="268"/>
-      <c r="G29" s="258"/>
-      <c r="H29" s="259"/>
+      <c r="F29" s="270"/>
+      <c r="G29" s="260"/>
+      <c r="H29" s="261"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="50">
@@ -5189,13 +5196,13 @@
       </c>
       <c r="B30" s="50"/>
       <c r="C30" s="50"/>
-      <c r="D30" s="280" t="s">
-        <v>161</v>
+      <c r="D30" s="282" t="s">
+        <v>159</v>
       </c>
       <c r="E30" s="50"/>
-      <c r="F30" s="268"/>
-      <c r="G30" s="260"/>
-      <c r="H30" s="261"/>
+      <c r="F30" s="270"/>
+      <c r="G30" s="262"/>
+      <c r="H30" s="263"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="50">
@@ -5203,9 +5210,9 @@
       </c>
       <c r="B31" s="50"/>
       <c r="C31" s="50"/>
-      <c r="D31" s="281"/>
+      <c r="D31" s="283"/>
       <c r="E31" s="50"/>
-      <c r="F31" s="268"/>
+      <c r="F31" s="270"/>
       <c r="G31" s="50"/>
       <c r="H31" s="50"/>
     </row>
@@ -5215,9 +5222,9 @@
       </c>
       <c r="B32" s="50"/>
       <c r="C32" s="50"/>
-      <c r="D32" s="281"/>
+      <c r="D32" s="283"/>
       <c r="E32" s="50"/>
-      <c r="F32" s="268"/>
+      <c r="F32" s="270"/>
       <c r="G32" s="50"/>
       <c r="H32" s="50"/>
     </row>
@@ -5227,9 +5234,9 @@
       </c>
       <c r="B33" s="50"/>
       <c r="C33" s="50"/>
-      <c r="D33" s="282"/>
+      <c r="D33" s="284"/>
       <c r="E33" s="50"/>
-      <c r="F33" s="268"/>
+      <c r="F33" s="270"/>
       <c r="G33" s="50"/>
       <c r="H33" s="50"/>
     </row>
@@ -5239,11 +5246,11 @@
       </c>
       <c r="B34" s="50"/>
       <c r="C34" s="50"/>
-      <c r="D34" s="283" t="s">
+      <c r="D34" s="285" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="50"/>
-      <c r="F34" s="269"/>
+      <c r="F34" s="271"/>
       <c r="G34" s="50"/>
       <c r="H34" s="50"/>
     </row>
@@ -5253,9 +5260,9 @@
       </c>
       <c r="B35" s="50"/>
       <c r="C35" s="50"/>
-      <c r="D35" s="284"/>
+      <c r="D35" s="286"/>
       <c r="E35" s="50"/>
-      <c r="F35" s="283" t="s">
+      <c r="F35" s="285" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="50"/>
@@ -5265,17 +5272,17 @@
       <c r="A36" s="50">
         <v>0.65625</v>
       </c>
-      <c r="D36" s="267" t="s">
+      <c r="D36" s="269" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="284"/>
+      <c r="F36" s="286"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="50">
         <v>0.66666666666666696</v>
       </c>
-      <c r="D37" s="268"/>
-      <c r="F37" s="264" t="s">
+      <c r="D37" s="270"/>
+      <c r="F37" s="266" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5283,42 +5290,42 @@
       <c r="A38" s="50">
         <v>0.67708333333333337</v>
       </c>
-      <c r="D38" s="268"/>
-      <c r="F38" s="265"/>
+      <c r="D38" s="270"/>
+      <c r="F38" s="267"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="50">
         <v>0.6875</v>
       </c>
-      <c r="D39" s="268"/>
-      <c r="F39" s="265"/>
+      <c r="D39" s="270"/>
+      <c r="F39" s="267"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="50">
         <v>0.69791666666666663</v>
       </c>
-      <c r="D40" s="268"/>
-      <c r="F40" s="265"/>
+      <c r="D40" s="270"/>
+      <c r="F40" s="267"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="50">
         <v>0.70833333333333404</v>
       </c>
-      <c r="D41" s="268"/>
-      <c r="F41" s="265"/>
+      <c r="D41" s="270"/>
+      <c r="F41" s="267"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="50">
         <v>0.71875</v>
       </c>
-      <c r="D42" s="268"/>
-      <c r="F42" s="266"/>
+      <c r="D42" s="270"/>
+      <c r="F42" s="268"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="50">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D43" s="269"/>
+      <c r="D43" s="271"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="50">
@@ -5339,89 +5346,89 @@
       <c r="A47" s="50">
         <v>0.77083333333333337</v>
       </c>
-      <c r="C47" s="294" t="s">
-        <v>59</v>
-      </c>
-      <c r="F47" s="291" t="s">
+      <c r="C47" s="296" t="s">
         <v>58</v>
+      </c>
+      <c r="F47" s="293" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="50">
         <v>0.78125</v>
       </c>
-      <c r="C48" s="295"/>
-      <c r="F48" s="292"/>
+      <c r="C48" s="297"/>
+      <c r="F48" s="294"/>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="50">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C49" s="295"/>
-      <c r="F49" s="292"/>
+      <c r="C49" s="297"/>
+      <c r="F49" s="294"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="50">
         <v>0.80208333333333337</v>
       </c>
-      <c r="C50" s="296"/>
-      <c r="F50" s="292"/>
+      <c r="C50" s="298"/>
+      <c r="F50" s="294"/>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="50">
         <v>0.8125</v>
       </c>
-      <c r="F51" s="292"/>
+      <c r="F51" s="294"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="50">
         <v>0.82291666666666663</v>
       </c>
-      <c r="F52" s="292"/>
+      <c r="F52" s="294"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="50">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F53" s="292"/>
+      <c r="F53" s="294"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="50">
         <v>0.84375</v>
       </c>
-      <c r="F54" s="292"/>
+      <c r="F54" s="294"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="50">
         <v>0.85416666666666663</v>
       </c>
-      <c r="F55" s="292"/>
+      <c r="F55" s="294"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="50">
         <v>0.86458333333333337</v>
       </c>
-      <c r="F56" s="292"/>
+      <c r="F56" s="294"/>
     </row>
     <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="50">
         <v>0.875</v>
       </c>
-      <c r="F57" s="293"/>
+      <c r="F57" s="295"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D59" s="278" t="s">
+      <c r="D59" s="280" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="278"/>
-      <c r="F59" s="278"/>
+      <c r="E59" s="280"/>
+      <c r="F59" s="280"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D60" s="279" t="s">
+      <c r="D60" s="281" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="279"/>
-      <c r="F60" s="279"/>
+      <c r="E60" s="281"/>
+      <c r="F60" s="281"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -5465,7 +5472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5493,126 +5500,126 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C3" s="67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C4" s="67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="67" t="s">
-        <v>44</v>
-      </c>
       <c r="C5" s="67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="67" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C6" s="67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="67" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C7" s="67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="67" t="s">
-        <v>50</v>
-      </c>
       <c r="C8" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="67" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C9" s="67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="67" t="s">
-        <v>48</v>
-      </c>
       <c r="C10" s="67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="90"/>
       <c r="E10" s="90"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B11" s="67" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C11" s="67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C12" s="67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="67" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C13" s="67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -5621,65 +5628,65 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="67" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B15" s="67" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C15" s="67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="90"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="67" t="s">
-        <v>46</v>
-      </c>
       <c r="C16" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="67" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B17" s="67" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C17" s="67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="18"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="67" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B18" s="67" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C18" s="67" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="90"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="67" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B19" s="67" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C19" s="67" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="18"/>
     </row>
   </sheetData>
-  <sortState ref="A3:C13">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C13">
     <sortCondition ref="C3:C13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5688,7 +5695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5709,32 +5716,32 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="299" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="297" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="297"/>
-      <c r="E1" s="297"/>
-      <c r="F1" s="297"/>
-      <c r="G1" s="297"/>
-      <c r="H1" s="297"/>
-      <c r="I1" s="297"/>
-      <c r="J1" s="297"/>
-      <c r="K1" s="297"/>
-      <c r="L1" s="297"/>
-      <c r="M1" s="297"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="299"/>
+      <c r="F1" s="299"/>
+      <c r="G1" s="299"/>
+      <c r="H1" s="299"/>
+      <c r="I1" s="299"/>
+      <c r="J1" s="299"/>
+      <c r="K1" s="299"/>
+      <c r="L1" s="299"/>
+      <c r="M1" s="299"/>
       <c r="N1" s="64"/>
       <c r="O1" s="64"/>
-      <c r="P1" s="298" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="298"/>
-      <c r="R1" s="298"/>
-      <c r="S1" s="298"/>
+      <c r="P1" s="300" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="300"/>
+      <c r="R1" s="300"/>
+      <c r="S1" s="300"/>
       <c r="T1" s="67"/>
       <c r="U1" s="67"/>
       <c r="V1" s="67"/>
@@ -5748,7 +5755,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="67">
         <v>5</v>
@@ -5773,33 +5780,33 @@
         <v>5</v>
       </c>
       <c r="P2" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="67" t="s">
         <v>36</v>
-      </c>
-      <c r="Q2" s="67" t="s">
-        <v>37</v>
       </c>
       <c r="R2" s="67"/>
       <c r="S2" s="67"/>
       <c r="T2" s="67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U2" s="70">
         <v>39</v>
       </c>
       <c r="V2" s="71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W2" s="70">
         <v>33</v>
       </c>
       <c r="X2" s="71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y2" s="70">
         <v>6</v>
       </c>
       <c r="Z2" s="71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -5807,7 +5814,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="66">
         <v>33</v>
@@ -5830,7 +5837,7 @@
         <v>3</v>
       </c>
       <c r="P3" s="67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="67"/>
       <c r="R3" s="67"/>
@@ -5854,7 +5861,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="67">
         <v>6</v>
@@ -5875,7 +5882,7 @@
         <v>3</v>
       </c>
       <c r="P4" s="67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="67"/>
       <c r="R4" s="67"/>
@@ -5899,7 +5906,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="66">
         <v>9</v>
@@ -5923,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="P5" s="67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="67"/>
       <c r="R5" s="67"/>
@@ -5933,19 +5940,19 @@
         <v>9</v>
       </c>
       <c r="V5" s="71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W5" s="70">
         <v>7</v>
       </c>
       <c r="X5" s="71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y5" s="70">
         <v>19</v>
       </c>
       <c r="Z5" s="71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -5953,7 +5960,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="66">
         <v>7</v>
@@ -5977,7 +5984,7 @@
         <v>3</v>
       </c>
       <c r="P6" s="67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="67"/>
       <c r="R6" s="67"/>
@@ -6001,7 +6008,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="66">
         <v>19</v>
@@ -6025,7 +6032,7 @@
         <v>3</v>
       </c>
       <c r="P7" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="67"/>
       <c r="R7" s="67"/>
@@ -6075,7 +6082,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="67">
         <v>39</v>
@@ -6096,7 +6103,7 @@
         <v>3</v>
       </c>
       <c r="P9" s="67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="67"/>
       <c r="R9" s="67"/>
@@ -6105,7 +6112,7 @@
         <v>2</v>
       </c>
       <c r="U9" s="109" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V9" s="110"/>
       <c r="W9" s="109"/>
@@ -6118,7 +6125,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="67">
         <v>10</v>
@@ -6145,10 +6152,10 @@
         <v>6</v>
       </c>
       <c r="P10" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="67" t="s">
         <v>31</v>
-      </c>
-      <c r="Q10" s="67" t="s">
-        <v>32</v>
       </c>
       <c r="R10" s="67"/>
       <c r="S10" s="67"/>
@@ -6165,7 +6172,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="66">
         <v>30</v>
@@ -6189,7 +6196,7 @@
         <v>3</v>
       </c>
       <c r="P11" s="67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="67"/>
       <c r="R11" s="67"/>
@@ -6201,19 +6208,19 @@
         <v>5</v>
       </c>
       <c r="V11" s="71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W11" s="70">
         <v>10</v>
       </c>
       <c r="X11" s="79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y11" s="70">
         <v>30</v>
       </c>
       <c r="Z11" s="71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -6283,7 +6290,7 @@
         <v>3</v>
       </c>
       <c r="V15" s="71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W15" s="109"/>
       <c r="X15" s="110"/>
@@ -6330,7 +6337,7 @@
         <v>1</v>
       </c>
       <c r="V18" s="79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W18" s="108"/>
       <c r="X18" s="110"/>
@@ -6382,7 +6389,7 @@
       <c r="S22" s="67"/>
     </row>
   </sheetData>
-  <sortState ref="A2:R11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R11">
     <sortCondition ref="A2:A11"/>
   </sortState>
   <mergeCells count="2">
@@ -6395,7 +6402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6416,32 +6423,32 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="299" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="297" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="297"/>
-      <c r="E1" s="297"/>
-      <c r="F1" s="297"/>
-      <c r="G1" s="297"/>
-      <c r="H1" s="297"/>
-      <c r="I1" s="297"/>
-      <c r="J1" s="297"/>
-      <c r="K1" s="297"/>
-      <c r="L1" s="297"/>
-      <c r="M1" s="297"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="299"/>
+      <c r="F1" s="299"/>
+      <c r="G1" s="299"/>
+      <c r="H1" s="299"/>
+      <c r="I1" s="299"/>
+      <c r="J1" s="299"/>
+      <c r="K1" s="299"/>
+      <c r="L1" s="299"/>
+      <c r="M1" s="299"/>
       <c r="N1" s="151"/>
       <c r="O1" s="151"/>
-      <c r="P1" s="298" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="298"/>
-      <c r="R1" s="298"/>
-      <c r="S1" s="298"/>
+      <c r="P1" s="300" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="300"/>
+      <c r="R1" s="300"/>
+      <c r="S1" s="300"/>
       <c r="T1" s="67"/>
       <c r="U1" s="67"/>
       <c r="V1" s="67"/>
@@ -6455,7 +6462,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C2" s="67">
         <v>16</v>
@@ -6474,16 +6481,16 @@
         <v>2</v>
       </c>
       <c r="P2" s="67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="67"/>
       <c r="R2" s="67"/>
       <c r="S2" s="67"/>
       <c r="T2" s="67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U2" s="109" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="V2" s="110"/>
       <c r="W2" s="109"/>
@@ -6496,7 +6503,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C3" s="66">
         <v>23</v>
@@ -6517,7 +6524,7 @@
         <v>2</v>
       </c>
       <c r="P3" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="67"/>
       <c r="R3" s="67"/>
@@ -6535,7 +6542,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C4" s="67">
         <v>18</v>
@@ -6558,10 +6565,10 @@
         <v>4</v>
       </c>
       <c r="P4" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="67" t="s">
         <v>53</v>
-      </c>
-      <c r="Q4" s="67" t="s">
-        <v>54</v>
       </c>
       <c r="R4" s="67"/>
       <c r="S4" s="67"/>
@@ -6569,7 +6576,7 @@
         <v>2</v>
       </c>
       <c r="U4" s="109" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="V4" s="110"/>
       <c r="W4" s="109"/>
@@ -6582,7 +6589,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C5" s="66">
         <v>2</v>
@@ -6606,7 +6613,7 @@
         <v>3</v>
       </c>
       <c r="P5" s="67" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="67"/>
       <c r="R5" s="67"/>
@@ -6644,19 +6651,19 @@
         <v>16</v>
       </c>
       <c r="V6" s="71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W6" s="70">
         <v>23</v>
       </c>
       <c r="X6" s="79" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y6" s="70">
         <v>18</v>
       </c>
       <c r="Z6" s="71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -6762,7 +6769,7 @@
         <v>51</v>
       </c>
       <c r="V10" s="71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W10" s="109"/>
       <c r="X10" s="110"/>
@@ -6824,7 +6831,7 @@
         <v>2</v>
       </c>
       <c r="V13" s="79" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W13" s="108"/>
       <c r="X13" s="110"/>
